--- a/data/filenames-indexes2.xlsx
+++ b/data/filenames-indexes2.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikol/Desktop/engrCapst/ExoArm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66344BAC-50C8-A14C-ACCC-959535587D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48985FC6-043D-1B4A-AB66-D6E25BC8C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{55F049C0-496D-4D49-AA67-824C2081B718}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -49,9 +46,6 @@
     <t>EXTENSION</t>
   </si>
   <si>
-    <t>../data/CoolTerm Capture 2022-12-06 20-02-36.txt</t>
-  </si>
-  <si>
     <t>SUSTAIN</t>
   </si>
   <si>
@@ -64,20 +58,28 @@
     <t>../data/12-1-data.txt</t>
   </si>
   <si>
-    <t>../data/TEST.txt</t>
+    <t>../data/CoolTerm Capture 2022-12-06 20-02-36.txt</t>
+  </si>
+  <si>
+    <t>../data/CoolTerm Capture 2023-02-02 10-56-19.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,12 +98,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F457DC8E-8911-D14A-8BC5-3B0862454636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,18 +458,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>391</v>
@@ -461,7 +481,7 @@
         <v>470</v>
       </c>
       <c r="E2">
-        <f>C2+F2</f>
+        <f t="shared" ref="E2:E12" si="0">C2+F2</f>
         <v>651</v>
       </c>
       <c r="F2">
@@ -479,7 +499,7 @@
         <v>860</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">C3+F3</f>
+        <f t="shared" si="0"/>
         <v>917</v>
       </c>
     </row>
@@ -624,14 +644,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12ABCF0-AD08-7245-A947-B3778545A52C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -644,18 +667,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>430</v>
@@ -721,44 +744,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2515B2DB-6B2F-1440-BAE9-D91DA1E4E0E4}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2">
+        <v>356</v>
+      </c>
+      <c r="C2">
+        <v>1314</v>
+      </c>
+      <c r="D2">
+        <v>2669</v>
+      </c>
+      <c r="E2">
+        <v>2008</v>
+      </c>
       <c r="F2">
         <v>90</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>620</v>
+      </c>
+      <c r="C3">
+        <v>1512</v>
+      </c>
+      <c r="D3">
+        <v>2769</v>
+      </c>
+      <c r="E3">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>818</v>
+      </c>
+      <c r="C4">
+        <v>1678</v>
+      </c>
+      <c r="D4">
+        <v>2967</v>
+      </c>
+      <c r="E4">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1182</v>
+      </c>
+      <c r="C5">
+        <v>1843</v>
+      </c>
+      <c r="D5">
+        <v>3033</v>
+      </c>
+      <c r="E5">
+        <v>2471</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>